--- a/roels.xlsx
+++ b/roels.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
